--- a/CraftTable.xlsx
+++ b/CraftTable.xlsx
@@ -305,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="D13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="G13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -616,7 +616,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Arrow</t>
+Iron Sword
+</t>
         </r>
       </text>
     </comment>
@@ -631,6 +632,22 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t xml:space="preserve">Wooden Sword
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>이기숙</t>
         </r>
         <r>
@@ -651,7 +668,438 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Iron Sword</t>
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oak wook plank
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+string</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+string</t>
         </r>
       </text>
     </comment>
@@ -660,7 +1108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -693,6 +1141,141 @@
   </si>
   <si>
     <t>slot9</t>
+  </si>
+  <si>
+    <t>Oak Wood Plank</t>
+  </si>
+  <si>
+    <t>Diamond Block</t>
+  </si>
+  <si>
+    <t>CobbleStone Stairs</t>
+  </si>
+  <si>
+    <t>Iron Block</t>
+  </si>
+  <si>
+    <t>Gold Block</t>
+  </si>
+  <si>
+    <t>Oak Door Block</t>
+  </si>
+  <si>
+    <t>Ladder</t>
+  </si>
+  <si>
+    <t>Iron Shovel</t>
+  </si>
+  <si>
+    <t>Iron Pickaxe</t>
+  </si>
+  <si>
+    <t>Iron Axe</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Iron Helmet</t>
+  </si>
+  <si>
+    <t>Iron Chestplate</t>
+  </si>
+  <si>
+    <t>Iron Leggings</t>
+  </si>
+  <si>
+    <t>Iron Boots</t>
+  </si>
+  <si>
+    <t>Diamond Helmet</t>
+  </si>
+  <si>
+    <t>Diamond Chestplate</t>
+  </si>
+  <si>
+    <t>Diamond Leggings</t>
+  </si>
+  <si>
+    <t>Diamond Boots</t>
+  </si>
+  <si>
+    <t>Gold Helmet</t>
+  </si>
+  <si>
+    <t>Gold Chestplate</t>
+  </si>
+  <si>
+    <t>Gold Leggings</t>
+  </si>
+  <si>
+    <t>Gold Boots</t>
+  </si>
+  <si>
+    <t>Fishing Rod</t>
+  </si>
+  <si>
+    <t>Shears</t>
+  </si>
+  <si>
+    <t>Carrot on a Stick</t>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+  </si>
+  <si>
+    <t>Wooden Sword</t>
+  </si>
+  <si>
+    <t>Wooden Shovel</t>
+  </si>
+  <si>
+    <t>Wooden Pickaxe</t>
+  </si>
+  <si>
+    <t>Wooden Axe</t>
+  </si>
+  <si>
+    <t>Stone Sword</t>
+  </si>
+  <si>
+    <t>Stone Shovel</t>
+  </si>
+  <si>
+    <t>Stone Pickaxe</t>
+  </si>
+  <si>
+    <t>Stone Axe</t>
+  </si>
+  <si>
+    <t>Diamond Sword</t>
+  </si>
+  <si>
+    <t>Diramond Shovel</t>
+  </si>
+  <si>
+    <t>Diamond Pickaxe</t>
+  </si>
+  <si>
+    <t>Diamond Axe</t>
+  </si>
+  <si>
+    <t>Gold Sword</t>
+  </si>
+  <si>
+    <t>Gold Shovel</t>
+  </si>
+  <si>
+    <t>Gold Pickaxe</t>
+  </si>
+  <si>
+    <t>Gold Axe</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Stone Slab</t>
   </si>
 </sst>
 </file>
@@ -759,7 +1342,124 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,111 +1767,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1003</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1006</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1007</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1004</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1004</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1008</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1020</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E4">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F4">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G4">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H4">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I4">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J4">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K4">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1019</v>
+      </c>
+      <c r="L4">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1009</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>1004</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
         <v>1004</v>
       </c>
       <c r="H5">
@@ -1186,394 +1911,1163 @@
       <c r="K5">
         <v>1004</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1010</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>1021</v>
-      </c>
-      <c r="D6">
-        <v>1021</v>
-      </c>
-      <c r="E6">
-        <v>1021</v>
-      </c>
-      <c r="F6">
-        <v>1021</v>
-      </c>
-      <c r="G6">
-        <v>1021</v>
-      </c>
-      <c r="H6">
-        <v>1021</v>
-      </c>
-      <c r="I6">
-        <v>1021</v>
-      </c>
-      <c r="J6">
-        <v>1021</v>
-      </c>
-      <c r="K6">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1020</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1020</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1020</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1020</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1020</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1020</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1020</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1020</v>
+      </c>
+      <c r="L6" s="20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1011</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>1022</v>
-      </c>
-      <c r="D7">
-        <v>1022</v>
-      </c>
-      <c r="E7">
-        <v>1022</v>
-      </c>
-      <c r="F7">
-        <v>1022</v>
-      </c>
-      <c r="G7">
-        <v>1022</v>
-      </c>
-      <c r="H7">
-        <v>1022</v>
-      </c>
-      <c r="I7">
-        <v>1022</v>
-      </c>
-      <c r="J7">
-        <v>1022</v>
-      </c>
-      <c r="K7">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1021</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1021</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1021</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1021</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1021</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1021</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1021</v>
+      </c>
+      <c r="K7" s="28">
+        <v>1021</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1012</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>1003</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1003</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>1003</v>
       </c>
       <c r="G8">
         <v>1003</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <v>1003</v>
       </c>
       <c r="J8">
         <v>1003</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1013</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>1040</v>
-      </c>
-      <c r="E9">
-        <v>1040</v>
-      </c>
-      <c r="F9">
-        <v>1040</v>
-      </c>
-      <c r="G9">
-        <v>1040</v>
-      </c>
-      <c r="H9">
-        <v>1040</v>
-      </c>
-      <c r="I9">
-        <v>1040</v>
-      </c>
-      <c r="K9">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D9" s="30">
+        <v>1039</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1039</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1039</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1039</v>
+      </c>
+      <c r="I9" s="34">
+        <v>1039</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1039</v>
+      </c>
+      <c r="L9" s="36">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1014</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1021</v>
-      </c>
-      <c r="F10">
-        <v>1040</v>
-      </c>
-      <c r="H10">
-        <v>1040</v>
-      </c>
-      <c r="J10">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1020</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36">
+        <v>1039</v>
+      </c>
+      <c r="K10" s="36">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1015</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>1021</v>
-      </c>
-      <c r="D11">
-        <v>1021</v>
-      </c>
-      <c r="E11">
-        <v>1021</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>1040</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1020</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1020</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1020</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="36">
+        <v>1039</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="36">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1016</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1021</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1021</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1021</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1040</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1020</v>
+      </c>
+      <c r="E12" s="36">
+        <v>1020</v>
+      </c>
+      <c r="G12" s="36">
+        <v>1020</v>
+      </c>
+      <c r="H12" s="36">
+        <v>1039</v>
+      </c>
+      <c r="K12" s="36">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1017</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1040</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1039</v>
+      </c>
+      <c r="G13" s="38">
+        <v>1040</v>
+      </c>
+      <c r="I13" s="36">
+        <v>1039</v>
+      </c>
+      <c r="J13" s="39">
+        <v>1040</v>
+      </c>
+      <c r="K13" s="36">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <v>1022</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1020</v>
+      </c>
+      <c r="H14" s="39">
+        <v>1020</v>
+      </c>
+      <c r="K14" s="39">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>1023</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>1003</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39">
+        <v>1003</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39">
+        <v>1039</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>1025</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1003</v>
+      </c>
+      <c r="E17" s="39">
+        <v>1003</v>
+      </c>
+      <c r="F17" s="39">
+        <v>1003</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>1026</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1003</v>
+      </c>
+      <c r="E18" s="39">
+        <v>1003</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39">
+        <v>1003</v>
+      </c>
+      <c r="H18" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>1027</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39">
+        <v>1004</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
+        <v>1004</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>1028</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39">
+        <v>1004</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>1029</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1004</v>
+      </c>
+      <c r="E21" s="39">
+        <v>1004</v>
+      </c>
+      <c r="F21" s="39">
+        <v>1004</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>1030</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="39">
+        <v>1</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1004</v>
+      </c>
+      <c r="E22" s="39">
+        <v>1004</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39">
+        <v>1004</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>1031</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="39">
+        <v>1</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39">
+        <v>1019</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39">
+        <v>1019</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>1032</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="39">
+        <v>1</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39">
+        <v>1019</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>1033</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="39">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39">
+        <v>1019</v>
+      </c>
+      <c r="E25" s="39">
+        <v>1019</v>
+      </c>
+      <c r="F25" s="39">
+        <v>1019</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>1034</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="39">
+        <v>1</v>
+      </c>
+      <c r="D26" s="39">
+        <v>1019</v>
+      </c>
+      <c r="E26" s="39">
+        <v>1019</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39">
+        <v>1019</v>
+      </c>
+      <c r="H26" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>1035</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="39">
+        <v>1</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39">
+        <v>1021</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39">
+        <v>1021</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L27" s="39"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
+        <v>1036</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="39">
+        <v>1</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39">
+        <v>1021</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L28" s="39"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
+        <v>1037</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="39">
+        <v>1</v>
+      </c>
+      <c r="D29" s="39">
+        <v>1021</v>
+      </c>
+      <c r="E29" s="39">
+        <v>1021</v>
+      </c>
+      <c r="F29" s="39">
+        <v>1021</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
+        <v>1038</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="39">
+        <v>1</v>
+      </c>
+      <c r="D30" s="39">
+        <v>1021</v>
+      </c>
+      <c r="E30" s="39">
+        <v>1021</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39">
+        <v>1021</v>
+      </c>
+      <c r="H30" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
+        <v>1039</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="H31" s="39">
+        <v>1003</v>
+      </c>
+      <c r="K31" s="39">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
         <v>1041</v>
       </c>
-      <c r="D13" s="1">
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39">
+        <v>1020</v>
+      </c>
+      <c r="E32" s="39">
+        <v>1020</v>
+      </c>
+      <c r="F32" s="39">
+        <v>1020</v>
+      </c>
+      <c r="G32" s="39">
+        <v>1020</v>
+      </c>
+      <c r="I32" s="39">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <v>1042</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="39">
+        <v>1020</v>
+      </c>
+      <c r="F33" s="39">
+        <v>1020</v>
+      </c>
+      <c r="G33" s="39">
+        <v>1020</v>
+      </c>
+      <c r="H33" s="39">
+        <v>1020</v>
+      </c>
+      <c r="I33" s="39">
+        <v>1020</v>
+      </c>
+      <c r="J33" s="39">
+        <v>1020</v>
+      </c>
+      <c r="K33" s="39">
+        <v>1020</v>
+      </c>
+      <c r="L33" s="39">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <v>1043</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="39">
+        <v>1020</v>
+      </c>
+      <c r="E34" s="39">
+        <v>1020</v>
+      </c>
+      <c r="F34" s="39">
+        <v>1020</v>
+      </c>
+      <c r="G34" s="39">
+        <v>1020</v>
+      </c>
+      <c r="I34" s="39">
+        <v>1020</v>
+      </c>
+      <c r="J34" s="39">
+        <v>1020</v>
+      </c>
+      <c r="L34" s="39">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <v>1044</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="39">
+        <v>1020</v>
+      </c>
+      <c r="I35" s="39">
+        <v>1020</v>
+      </c>
+      <c r="J35" s="39">
+        <v>1020</v>
+      </c>
+      <c r="L35" s="39">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <v>1045</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="39">
+        <v>1019</v>
+      </c>
+      <c r="E36" s="39">
+        <v>1019</v>
+      </c>
+      <c r="F36" s="39">
+        <v>1019</v>
+      </c>
+      <c r="G36" s="39">
+        <v>1019</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39">
+        <v>1019</v>
+      </c>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <v>1046</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="39">
+        <v>1019</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39">
+        <v>1019</v>
+      </c>
+      <c r="G37" s="39">
+        <v>1019</v>
+      </c>
+      <c r="H37" s="39">
+        <v>1019</v>
+      </c>
+      <c r="I37" s="39">
+        <v>1019</v>
+      </c>
+      <c r="J37" s="39">
+        <v>1019</v>
+      </c>
+      <c r="K37" s="39">
+        <v>1019</v>
+      </c>
+      <c r="L37" s="39">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="8">
+        <v>1047</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="39">
+        <v>1019</v>
+      </c>
+      <c r="E38" s="39">
+        <v>1019</v>
+      </c>
+      <c r="F38" s="39">
+        <v>1019</v>
+      </c>
+      <c r="G38" s="39">
+        <v>1019</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39">
+        <v>1019</v>
+      </c>
+      <c r="J38" s="39">
+        <v>1019</v>
+      </c>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="8">
+        <v>1048</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39">
+        <v>1019</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39">
+        <v>1019</v>
+      </c>
+      <c r="J39" s="39">
+        <v>1019</v>
+      </c>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="8">
+        <v>1049</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="39">
+        <v>1021</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1021</v>
+      </c>
+      <c r="F40" s="39">
+        <v>1021</v>
+      </c>
+      <c r="G40" s="39">
+        <v>1021</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39">
+        <v>1021</v>
+      </c>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="8">
+        <v>1050</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="39">
+        <v>1021</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39">
+        <v>1021</v>
+      </c>
+      <c r="G41" s="39">
+        <v>1021</v>
+      </c>
+      <c r="H41" s="39">
+        <v>1021</v>
+      </c>
+      <c r="I41" s="39">
+        <v>1021</v>
+      </c>
+      <c r="J41" s="39">
+        <v>1021</v>
+      </c>
+      <c r="K41" s="39">
+        <v>1021</v>
+      </c>
+      <c r="L41" s="39">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="8">
+        <v>1051</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="39">
+        <v>1021</v>
+      </c>
+      <c r="E42" s="39">
+        <v>1021</v>
+      </c>
+      <c r="F42" s="39">
+        <v>1021</v>
+      </c>
+      <c r="G42" s="39">
+        <v>1021</v>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39">
+        <v>1021</v>
+      </c>
+      <c r="J42" s="39">
+        <v>1021</v>
+      </c>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="8">
+        <v>1052</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39">
+        <v>1021</v>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39">
+        <v>1021</v>
+      </c>
+      <c r="J43" s="39">
+        <v>1021</v>
+      </c>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="8">
+        <v>1053</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="39">
+        <v>1039</v>
+      </c>
+      <c r="H44" s="39">
+        <v>1039</v>
+      </c>
+      <c r="I44" s="39">
         <v>1040</v>
       </c>
-      <c r="F13" s="1">
-        <v>1041</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="J44" s="39">
+        <v>1039</v>
+      </c>
+      <c r="L44" s="39">
         <v>1040</v>
       </c>
-      <c r="I13" s="1">
-        <v>1041</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="8">
+        <v>1054</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="39">
+        <v>1020</v>
+      </c>
+      <c r="J45" s="39">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="9">
+        <v>1056</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="39">
         <v>1053</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44">
+      <c r="K46" s="40">
         <v>1055</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>1059</v>
       </c>
     </row>
   </sheetData>

--- a/CraftTable.xlsx
+++ b/CraftTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitFiles\toolprograming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB1726-FC70-4C3D-BF68-D3A75A61D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="17832" windowHeight="6888"/>
+    <workbookView xWindow="1890" yWindow="2685" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>이기숙</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -515,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -550,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -585,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -637,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -673,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -709,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -745,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -781,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -817,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -853,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -889,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -925,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H31" authorId="0">
+    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -997,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0">
+    <comment ref="K31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0">
+    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L44" authorId="0">
+    <comment ref="L44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -1276,12 +1282,16 @@
   </si>
   <si>
     <t>Stone Slab</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1476,6 +1486,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1523,7 +1536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,9 +1569,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,6 +1621,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1766,22 +1813,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1814,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1003</v>
       </c>
@@ -1827,8 +1877,32 @@
       <c r="D2">
         <v>1006</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40">
+        <v>0</v>
+      </c>
+      <c r="G2" s="40">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40">
+        <v>0</v>
+      </c>
+      <c r="I2" s="40">
+        <v>0</v>
+      </c>
+      <c r="J2" s="40">
+        <v>0</v>
+      </c>
+      <c r="K2" s="40">
+        <v>0</v>
+      </c>
+      <c r="L2" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1007</v>
       </c>
@@ -1838,6 +1912,24 @@
       <c r="C3">
         <v>6</v>
       </c>
+      <c r="D3" s="40">
+        <v>0</v>
+      </c>
+      <c r="E3" s="40">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+      <c r="H3" s="40">
+        <v>0</v>
+      </c>
+      <c r="I3" s="40">
+        <v>0</v>
+      </c>
       <c r="J3" s="11">
         <v>1004</v>
       </c>
@@ -1848,7 +1940,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1008</v>
       </c>
@@ -1886,7 +1978,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1009</v>
       </c>
@@ -1896,9 +1988,18 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5" s="40">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>1004</v>
       </c>
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
       <c r="H5">
         <v>1004</v>
       </c>
@@ -1915,7 +2016,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1010</v>
       </c>
@@ -1953,7 +2054,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1011</v>
       </c>
@@ -1991,7 +2092,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1012</v>
       </c>
@@ -2007,20 +2108,29 @@
       <c r="E8">
         <v>1003</v>
       </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
       <c r="G8">
         <v>1003</v>
       </c>
       <c r="H8">
         <v>1003</v>
       </c>
+      <c r="I8" s="40">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>1003</v>
       </c>
       <c r="K8">
         <v>1003</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1013</v>
       </c>
@@ -2033,6 +2143,9 @@
       <c r="D9" s="30">
         <v>1039</v>
       </c>
+      <c r="E9" s="40">
+        <v>0</v>
+      </c>
       <c r="F9" s="31">
         <v>1039</v>
       </c>
@@ -2048,11 +2161,14 @@
       <c r="J9" s="35">
         <v>1039</v>
       </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
       <c r="L9" s="36">
         <v>1039</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1014</v>
       </c>
@@ -2062,18 +2178,35 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10" s="40">
+        <v>0</v>
+      </c>
       <c r="E10" s="36">
         <v>1020</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0</v>
+      </c>
       <c r="H10" s="36">
         <v>1039</v>
       </c>
+      <c r="I10" s="40">
+        <v>0</v>
+      </c>
+      <c r="J10" s="40">
+        <v>0</v>
+      </c>
       <c r="K10" s="36">
         <v>1039</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L10" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1015</v>
       </c>
@@ -2092,16 +2225,26 @@
       <c r="F11" s="36">
         <v>1020</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="40">
+        <v>0</v>
+      </c>
       <c r="H11" s="36">
         <v>1039</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="I11" s="40">
+        <v>0</v>
+      </c>
+      <c r="J11" s="40">
+        <v>0</v>
+      </c>
       <c r="K11" s="36">
         <v>1039</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1016</v>
       </c>
@@ -2117,17 +2260,29 @@
       <c r="E12" s="36">
         <v>1020</v>
       </c>
+      <c r="F12" s="40">
+        <v>0</v>
+      </c>
       <c r="G12" s="36">
         <v>1020</v>
       </c>
       <c r="H12" s="36">
         <v>1039</v>
       </c>
+      <c r="I12" s="40">
+        <v>0</v>
+      </c>
+      <c r="J12" s="40">
+        <v>0</v>
+      </c>
       <c r="K12" s="36">
         <v>1039</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1017</v>
       </c>
@@ -2143,9 +2298,15 @@
       <c r="E13" s="36">
         <v>1039</v>
       </c>
+      <c r="F13" s="40">
+        <v>0</v>
+      </c>
       <c r="G13" s="38">
         <v>1040</v>
       </c>
+      <c r="H13" s="40">
+        <v>0</v>
+      </c>
       <c r="I13" s="36">
         <v>1039</v>
       </c>
@@ -2155,8 +2316,11 @@
       <c r="K13" s="36">
         <v>1039</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1022</v>
       </c>
@@ -2166,17 +2330,35 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14" s="40">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>1020</v>
       </c>
+      <c r="F14" s="40">
+        <v>0</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
       <c r="H14" s="39">
         <v>1020</v>
       </c>
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <v>0</v>
+      </c>
       <c r="K14" s="39">
         <v>1039</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1023</v>
       </c>
@@ -2186,21 +2368,35 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15" s="40">
+        <v>0</v>
+      </c>
       <c r="E15" s="39">
         <v>1003</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="40">
+        <v>0</v>
+      </c>
+      <c r="G15" s="40">
+        <v>0</v>
+      </c>
       <c r="H15" s="39">
         <v>1003</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="40">
+        <v>0</v>
+      </c>
       <c r="K15" s="39">
         <v>1039</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L15" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1024</v>
       </c>
@@ -2210,22 +2406,35 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="40">
+        <v>0</v>
+      </c>
       <c r="E16" s="39">
         <v>1003</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="40">
+        <v>0</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0</v>
+      </c>
       <c r="H16" s="39">
         <v>1039</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="I16" s="40">
+        <v>0</v>
+      </c>
+      <c r="J16" s="40">
+        <v>0</v>
+      </c>
       <c r="K16" s="39">
         <v>1039</v>
       </c>
-      <c r="L16" s="39"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>1025</v>
       </c>
@@ -2244,18 +2453,26 @@
       <c r="F17" s="39">
         <v>1003</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="40">
+        <v>0</v>
+      </c>
       <c r="H17" s="39">
         <v>1039</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="40">
+        <v>0</v>
+      </c>
       <c r="K17" s="39">
         <v>1039</v>
       </c>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1026</v>
       </c>
@@ -2271,21 +2488,29 @@
       <c r="E18" s="39">
         <v>1003</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="40">
+        <v>0</v>
+      </c>
       <c r="G18" s="39">
         <v>1003</v>
       </c>
       <c r="H18" s="39">
         <v>1039</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0</v>
+      </c>
       <c r="K18" s="39">
         <v>1039</v>
       </c>
-      <c r="L18" s="39"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1027</v>
       </c>
@@ -2295,23 +2520,35 @@
       <c r="C19" s="39">
         <v>1</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="40">
+        <v>0</v>
+      </c>
       <c r="E19" s="39">
         <v>1004</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="40">
+        <v>0</v>
+      </c>
+      <c r="G19" s="40">
+        <v>0</v>
+      </c>
       <c r="H19" s="39">
         <v>1004</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="40">
+        <v>0</v>
+      </c>
       <c r="K19" s="39">
         <v>1039</v>
       </c>
-      <c r="L19" s="39"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L19" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>1028</v>
       </c>
@@ -2321,23 +2558,35 @@
       <c r="C20" s="39">
         <v>1</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="40">
+        <v>0</v>
+      </c>
       <c r="E20" s="39">
         <v>1004</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="40">
+        <v>0</v>
+      </c>
+      <c r="G20" s="40">
+        <v>0</v>
+      </c>
       <c r="H20" s="39">
         <v>1039</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="40">
+        <v>0</v>
+      </c>
+      <c r="J20" s="40">
+        <v>0</v>
+      </c>
       <c r="K20" s="39">
         <v>1039</v>
       </c>
-      <c r="L20" s="39"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L20" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1029</v>
       </c>
@@ -2356,18 +2605,26 @@
       <c r="F21" s="39">
         <v>1004</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="40">
+        <v>0</v>
+      </c>
       <c r="H21" s="39">
         <v>1039</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="40">
+        <v>0</v>
+      </c>
+      <c r="J21" s="40">
+        <v>0</v>
+      </c>
       <c r="K21" s="39">
         <v>1039</v>
       </c>
-      <c r="L21" s="39"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L21" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1030</v>
       </c>
@@ -2383,21 +2640,29 @@
       <c r="E22" s="39">
         <v>1004</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="40">
+        <v>0</v>
+      </c>
       <c r="G22" s="39">
         <v>1004</v>
       </c>
       <c r="H22" s="39">
         <v>1039</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="I22" s="40">
+        <v>0</v>
+      </c>
+      <c r="J22" s="40">
+        <v>0</v>
+      </c>
       <c r="K22" s="39">
         <v>1039</v>
       </c>
-      <c r="L22" s="39"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L22" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1031</v>
       </c>
@@ -2407,23 +2672,35 @@
       <c r="C23" s="39">
         <v>1</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="40">
+        <v>0</v>
+      </c>
       <c r="E23" s="39">
         <v>1019</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="40">
+        <v>0</v>
+      </c>
+      <c r="G23" s="40">
+        <v>0</v>
+      </c>
       <c r="H23" s="39">
         <v>1019</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="40">
+        <v>0</v>
+      </c>
+      <c r="J23" s="40">
+        <v>0</v>
+      </c>
       <c r="K23" s="39">
         <v>1039</v>
       </c>
-      <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L23" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1032</v>
       </c>
@@ -2433,23 +2710,35 @@
       <c r="C24" s="39">
         <v>1</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="40">
+        <v>0</v>
+      </c>
       <c r="E24" s="39">
         <v>1019</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="40">
+        <v>0</v>
+      </c>
+      <c r="G24" s="40">
+        <v>0</v>
+      </c>
       <c r="H24" s="39">
         <v>1039</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="40">
+        <v>0</v>
+      </c>
+      <c r="J24" s="40">
+        <v>0</v>
+      </c>
       <c r="K24" s="39">
         <v>1039</v>
       </c>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L24" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1033</v>
       </c>
@@ -2468,18 +2757,26 @@
       <c r="F25" s="39">
         <v>1019</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="40">
+        <v>0</v>
+      </c>
       <c r="H25" s="39">
         <v>1039</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="40">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <v>0</v>
+      </c>
       <c r="K25" s="39">
         <v>1039</v>
       </c>
-      <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L25" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>1034</v>
       </c>
@@ -2495,21 +2792,29 @@
       <c r="E26" s="39">
         <v>1019</v>
       </c>
-      <c r="F26" s="39"/>
+      <c r="F26" s="40">
+        <v>0</v>
+      </c>
       <c r="G26" s="39">
         <v>1019</v>
       </c>
       <c r="H26" s="39">
         <v>1039</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="J26" s="40">
+        <v>0</v>
+      </c>
       <c r="K26" s="39">
         <v>1039</v>
       </c>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L26" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1035</v>
       </c>
@@ -2519,23 +2824,35 @@
       <c r="C27" s="39">
         <v>1</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>0</v>
+      </c>
       <c r="E27" s="39">
         <v>1021</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="40">
+        <v>0</v>
+      </c>
+      <c r="G27" s="40">
+        <v>0</v>
+      </c>
       <c r="H27" s="39">
         <v>1021</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="40">
+        <v>0</v>
+      </c>
+      <c r="J27" s="40">
+        <v>0</v>
+      </c>
       <c r="K27" s="39">
         <v>1039</v>
       </c>
-      <c r="L27" s="39"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L27" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1036</v>
       </c>
@@ -2545,23 +2862,35 @@
       <c r="C28" s="39">
         <v>1</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="39">
+        <v>0</v>
+      </c>
       <c r="E28" s="39">
         <v>1021</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="40">
+        <v>0</v>
+      </c>
+      <c r="G28" s="40">
+        <v>0</v>
+      </c>
       <c r="H28" s="39">
         <v>1039</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="40">
+        <v>0</v>
+      </c>
+      <c r="J28" s="40">
+        <v>0</v>
+      </c>
       <c r="K28" s="39">
         <v>1039</v>
       </c>
-      <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L28" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>1037</v>
       </c>
@@ -2580,18 +2909,26 @@
       <c r="F29" s="39">
         <v>1021</v>
       </c>
-      <c r="G29" s="39"/>
+      <c r="G29" s="40">
+        <v>0</v>
+      </c>
       <c r="H29" s="39">
         <v>1039</v>
       </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="I29" s="40">
+        <v>0</v>
+      </c>
+      <c r="J29" s="40">
+        <v>0</v>
+      </c>
       <c r="K29" s="39">
         <v>1039</v>
       </c>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L29" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1038</v>
       </c>
@@ -2607,21 +2944,29 @@
       <c r="E30" s="39">
         <v>1021</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="40">
+        <v>0</v>
+      </c>
       <c r="G30" s="39">
         <v>1021</v>
       </c>
       <c r="H30" s="39">
         <v>1039</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="I30" s="40">
+        <v>0</v>
+      </c>
+      <c r="J30" s="40">
+        <v>0</v>
+      </c>
       <c r="K30" s="39">
         <v>1039</v>
       </c>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L30" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1039</v>
       </c>
@@ -2631,14 +2976,35 @@
       <c r="C31">
         <v>4</v>
       </c>
+      <c r="D31" s="40">
+        <v>0</v>
+      </c>
+      <c r="E31" s="40">
+        <v>0</v>
+      </c>
+      <c r="F31" s="40">
+        <v>0</v>
+      </c>
+      <c r="G31" s="40">
+        <v>0</v>
+      </c>
       <c r="H31" s="39">
         <v>1003</v>
       </c>
+      <c r="I31" s="40">
+        <v>0</v>
+      </c>
+      <c r="J31" s="40">
+        <v>0</v>
+      </c>
       <c r="K31" s="39">
         <v>1003</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L31" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>1041</v>
       </c>
@@ -2660,11 +3026,23 @@
       <c r="G32" s="39">
         <v>1020</v>
       </c>
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
       <c r="I32" s="39">
         <v>1020</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J32" s="40">
+        <v>0</v>
+      </c>
+      <c r="K32" s="40">
+        <v>0</v>
+      </c>
+      <c r="L32" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>1042</v>
       </c>
@@ -2699,7 +3077,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>1043</v>
       </c>
@@ -2721,17 +3099,23 @@
       <c r="G34" s="39">
         <v>1020</v>
       </c>
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
       <c r="I34" s="39">
         <v>1020</v>
       </c>
       <c r="J34" s="39">
         <v>1020</v>
       </c>
+      <c r="K34" s="40">
+        <v>0</v>
+      </c>
       <c r="L34" s="39">
         <v>1020</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>1044</v>
       </c>
@@ -2741,20 +3125,35 @@
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="D35" s="40">
+        <v>0</v>
+      </c>
+      <c r="E35" s="40">
+        <v>0</v>
+      </c>
+      <c r="F35" s="40">
+        <v>0</v>
+      </c>
       <c r="G35" s="39">
         <v>1020</v>
       </c>
+      <c r="H35" s="40">
+        <v>0</v>
+      </c>
       <c r="I35" s="39">
         <v>1020</v>
       </c>
       <c r="J35" s="39">
         <v>1020</v>
       </c>
+      <c r="K35" s="40">
+        <v>0</v>
+      </c>
       <c r="L35" s="39">
         <v>1020</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>1045</v>
       </c>
@@ -2776,15 +3175,23 @@
       <c r="G36" s="39">
         <v>1019</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
       <c r="I36" s="39">
         <v>1019</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J36" s="40">
+        <v>0</v>
+      </c>
+      <c r="K36" s="40">
+        <v>0</v>
+      </c>
+      <c r="L36" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>1046</v>
       </c>
@@ -2797,7 +3204,9 @@
       <c r="D37" s="39">
         <v>1019</v>
       </c>
-      <c r="E37" s="39"/>
+      <c r="E37" s="40">
+        <v>0</v>
+      </c>
       <c r="F37" s="39">
         <v>1019</v>
       </c>
@@ -2820,7 +3229,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>1047</v>
       </c>
@@ -2842,19 +3251,23 @@
       <c r="G38" s="39">
         <v>1019</v>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="40">
+        <v>0</v>
+      </c>
       <c r="I38" s="39">
         <v>1019</v>
       </c>
       <c r="J38" s="39">
         <v>1019</v>
       </c>
-      <c r="K38" s="39"/>
+      <c r="K38" s="40">
+        <v>0</v>
+      </c>
       <c r="L38" s="39">
         <v>1020</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>1048</v>
       </c>
@@ -2864,25 +3277,35 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="D39" s="40">
+        <v>0</v>
+      </c>
+      <c r="E39" s="40">
+        <v>0</v>
+      </c>
+      <c r="F39" s="40">
+        <v>0</v>
+      </c>
       <c r="G39" s="39">
         <v>1019</v>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="40">
+        <v>0</v>
+      </c>
       <c r="I39" s="39">
         <v>1019</v>
       </c>
       <c r="J39" s="39">
         <v>1019</v>
       </c>
-      <c r="K39" s="39"/>
+      <c r="K39" s="40">
+        <v>0</v>
+      </c>
       <c r="L39" s="39">
         <v>1019</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>1049</v>
       </c>
@@ -2904,15 +3327,23 @@
       <c r="G40" s="39">
         <v>1021</v>
       </c>
-      <c r="H40" s="39"/>
+      <c r="H40" s="40">
+        <v>0</v>
+      </c>
       <c r="I40" s="39">
         <v>1021</v>
       </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J40" s="40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>1050</v>
       </c>
@@ -2925,7 +3356,9 @@
       <c r="D41" s="39">
         <v>1021</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="40">
+        <v>0</v>
+      </c>
       <c r="F41" s="39">
         <v>1021</v>
       </c>
@@ -2948,7 +3381,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>1051</v>
       </c>
@@ -2970,19 +3403,23 @@
       <c r="G42" s="39">
         <v>1021</v>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="40">
+        <v>0</v>
+      </c>
       <c r="I42" s="39">
         <v>1021</v>
       </c>
       <c r="J42" s="39">
         <v>1021</v>
       </c>
-      <c r="K42" s="39"/>
+      <c r="K42" s="40">
+        <v>0</v>
+      </c>
       <c r="L42" s="39">
         <v>1021</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>1052</v>
       </c>
@@ -2992,25 +3429,35 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
+      <c r="D43" s="40">
+        <v>0</v>
+      </c>
+      <c r="E43" s="40">
+        <v>0</v>
+      </c>
+      <c r="F43" s="40">
+        <v>0</v>
+      </c>
       <c r="G43" s="39">
         <v>1021</v>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="40">
+        <v>0</v>
+      </c>
       <c r="I43" s="39">
         <v>1021</v>
       </c>
       <c r="J43" s="39">
         <v>1021</v>
       </c>
-      <c r="K43" s="39"/>
+      <c r="K43" s="40">
+        <v>0</v>
+      </c>
       <c r="L43" s="39">
         <v>1021</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>1053</v>
       </c>
@@ -3020,8 +3467,17 @@
       <c r="C44">
         <v>1</v>
       </c>
+      <c r="D44" s="40">
+        <v>0</v>
+      </c>
+      <c r="E44" s="40">
+        <v>0</v>
+      </c>
       <c r="F44" s="39">
         <v>1039</v>
+      </c>
+      <c r="G44" s="40">
+        <v>0</v>
       </c>
       <c r="H44" s="39">
         <v>1039</v>
@@ -3032,11 +3488,14 @@
       <c r="J44" s="39">
         <v>1039</v>
       </c>
+      <c r="K44" s="40">
+        <v>0</v>
+      </c>
       <c r="L44" s="39">
         <v>1040</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>1054</v>
       </c>
@@ -3046,14 +3505,35 @@
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="D45" s="40">
+        <v>0</v>
+      </c>
+      <c r="E45" s="40">
+        <v>0</v>
+      </c>
+      <c r="F45" s="40">
+        <v>0</v>
+      </c>
+      <c r="G45" s="40">
+        <v>0</v>
+      </c>
       <c r="H45" s="39">
         <v>1020</v>
       </c>
+      <c r="I45" s="40">
+        <v>0</v>
+      </c>
       <c r="J45" s="39">
         <v>1020</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K45" s="40">
+        <v>0</v>
+      </c>
+      <c r="L45" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1056</v>
       </c>
@@ -3063,11 +3543,32 @@
       <c r="C46">
         <v>1</v>
       </c>
+      <c r="D46" s="40">
+        <v>0</v>
+      </c>
+      <c r="E46" s="40">
+        <v>0</v>
+      </c>
+      <c r="F46" s="40">
+        <v>0</v>
+      </c>
       <c r="G46" s="39">
         <v>1053</v>
       </c>
+      <c r="H46" s="40">
+        <v>0</v>
+      </c>
+      <c r="I46" s="40">
+        <v>0</v>
+      </c>
+      <c r="J46" s="40">
+        <v>0</v>
+      </c>
       <c r="K46" s="40">
         <v>1055</v>
+      </c>
+      <c r="L46" s="40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3079,12 +3580,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3092,12 +3593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CraftTable.xlsx
+++ b/CraftTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitFiles\toolprograming\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB1726-FC70-4C3D-BF68-D3A75A61D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="2685" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="2688" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>이기숙</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="A12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="D13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="G13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -679,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -787,7 +781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="E17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -823,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="E18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -931,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="G18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -967,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="H31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1003,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="K31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1039,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="I44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1074,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="L44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1106,6 +1100,41 @@
           </rPr>
           <t xml:space="preserve">
 string</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기숙</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+diamond block</t>
         </r>
       </text>
     </comment>
@@ -1114,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -1286,12 +1315,21 @@
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Iron Ingot</t>
+  </si>
+  <si>
+    <t>Gold Ingot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1352,7 +1390,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,9 +1535,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1536,7 +1583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1569,26 +1616,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1621,23 +1651,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1813,20 +1826,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1003</v>
       </c>
@@ -1902,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1007</v>
       </c>
@@ -1940,7 +1953,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1008</v>
       </c>
@@ -1978,7 +1991,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1009</v>
       </c>
@@ -2016,7 +2029,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1010</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1011</v>
       </c>
@@ -2092,7 +2105,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1012</v>
       </c>
@@ -2130,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1013</v>
       </c>
@@ -2168,7 +2181,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1014</v>
       </c>
@@ -2206,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1015</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1016</v>
       </c>
@@ -2282,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1017</v>
       </c>
@@ -2320,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1022</v>
       </c>
@@ -2358,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1023</v>
       </c>
@@ -2396,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1024</v>
       </c>
@@ -2434,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>1025</v>
       </c>
@@ -2472,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1026</v>
       </c>
@@ -2510,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1027</v>
       </c>
@@ -2548,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>1028</v>
       </c>
@@ -2586,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1029</v>
       </c>
@@ -2624,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1030</v>
       </c>
@@ -2662,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1031</v>
       </c>
@@ -2700,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>1032</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>1033</v>
       </c>
@@ -2776,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>1034</v>
       </c>
@@ -2814,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>1035</v>
       </c>
@@ -2852,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>1036</v>
       </c>
@@ -2890,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>1037</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>1038</v>
       </c>
@@ -2966,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>1039</v>
       </c>
@@ -3004,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>1041</v>
       </c>
@@ -3042,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>1042</v>
       </c>
@@ -3077,7 +3090,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
         <v>1043</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
         <v>1044</v>
       </c>
@@ -3153,7 +3166,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
         <v>1045</v>
       </c>
@@ -3191,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <v>1046</v>
       </c>
@@ -3229,7 +3242,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="8">
         <v>1047</v>
       </c>
@@ -3267,7 +3280,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
         <v>1048</v>
       </c>
@@ -3305,7 +3318,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
         <v>1049</v>
       </c>
@@ -3343,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>1050</v>
       </c>
@@ -3381,7 +3394,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <v>1051</v>
       </c>
@@ -3419,7 +3432,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
         <v>1052</v>
       </c>
@@ -3457,7 +3470,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
         <v>1053</v>
       </c>
@@ -3495,7 +3508,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
         <v>1054</v>
       </c>
@@ -3533,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>1056</v>
       </c>
@@ -3568,6 +3581,120 @@
         <v>1055</v>
       </c>
       <c r="L46" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
+        <v>1019</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47" s="42">
+        <v>1008</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="42">
+        <v>1020</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48" s="43">
+        <v>1010</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="42">
+        <v>1021</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49" s="44">
+        <v>1011</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>0</v>
       </c>
     </row>
@@ -3580,12 +3707,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3593,12 +3720,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
